--- a/data/trans_orig/IP05A03-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP05A03-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{782BEE9E-5A76-4D29-9EFC-C93BBB675471}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3EE69A81-087D-488B-AB7D-D5733264FACE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{948A782B-9E22-4757-B20D-4E5F1E59F046}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{21053D0D-7FA8-4492-BA3C-C712260DC96C}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="544">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="536">
   <si>
     <t>Población según si en el barrio donde vive la contaminación es elevada en 2007 (Tasa respuesta: 99,62%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Nada</t>
@@ -77,7 +77,7 @@
     <t>90,63%</t>
   </si>
   <si>
-    <t>78,02%</t>
+    <t>76,23%</t>
   </si>
   <si>
     <t>97,09%</t>
@@ -86,7 +86,7 @@
     <t>96,33%</t>
   </si>
   <si>
-    <t>79,46%</t>
+    <t>79,19%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -95,10 +95,10 @@
     <t>93,32%</t>
   </si>
   <si>
-    <t>82,8%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
+    <t>84,31%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
   </si>
   <si>
     <t>Algo</t>
@@ -110,7 +110,7 @@
     <t>2,91%</t>
   </si>
   <si>
-    <t>21,98%</t>
+    <t>23,77%</t>
   </si>
   <si>
     <t>3,67%</t>
@@ -119,1558 +119,1534 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>20,54%</t>
+    <t>20,81%</t>
   </si>
   <si>
     <t>6,68%</t>
   </si>
   <si>
-    <t>1,71%</t>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>Mucho</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>89,46%</t>
+  </si>
+  <si>
+    <t>84,4%</t>
+  </si>
+  <si>
+    <t>93,31%</t>
+  </si>
+  <si>
+    <t>86,16%</t>
+  </si>
+  <si>
+    <t>80,33%</t>
+  </si>
+  <si>
+    <t>90,47%</t>
+  </si>
+  <si>
+    <t>87,88%</t>
+  </si>
+  <si>
+    <t>83,97%</t>
+  </si>
+  <si>
+    <t>90,88%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>14,33%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
+  </si>
+  <si>
+    <t>14,31%</t>
+  </si>
+  <si>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>4,82%</t>
+  </si>
+  <si>
+    <t>1,46%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>87,0%</t>
+  </si>
+  <si>
+    <t>82,99%</t>
+  </si>
+  <si>
+    <t>90,23%</t>
+  </si>
+  <si>
+    <t>87,1%</t>
+  </si>
+  <si>
+    <t>83,01%</t>
+  </si>
+  <si>
+    <t>90,32%</t>
+  </si>
+  <si>
+    <t>87,05%</t>
+  </si>
+  <si>
+    <t>83,96%</t>
+  </si>
+  <si>
+    <t>89,39%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>14,57%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>11,34%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>78,89%</t>
+  </si>
+  <si>
+    <t>73,18%</t>
+  </si>
+  <si>
+    <t>83,51%</t>
+  </si>
+  <si>
+    <t>78,9%</t>
+  </si>
+  <si>
+    <t>73,24%</t>
+  </si>
+  <si>
+    <t>84,24%</t>
+  </si>
+  <si>
+    <t>75,11%</t>
+  </si>
+  <si>
+    <t>82,35%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>19,05%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>24,22%</t>
+  </si>
+  <si>
+    <t>18,6%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>22,35%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>74,17%</t>
+  </si>
+  <si>
+    <t>68,6%</t>
+  </si>
+  <si>
+    <t>78,96%</t>
+  </si>
+  <si>
+    <t>74,78%</t>
+  </si>
+  <si>
+    <t>68,88%</t>
+  </si>
+  <si>
+    <t>79,54%</t>
+  </si>
+  <si>
+    <t>74,48%</t>
+  </si>
+  <si>
+    <t>71,1%</t>
+  </si>
+  <si>
+    <t>78,05%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>27,22%</t>
+  </si>
+  <si>
+    <t>19,58%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>24,09%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>82,19%</t>
+  </si>
+  <si>
+    <t>79,85%</t>
+  </si>
+  <si>
+    <t>84,28%</t>
+  </si>
+  <si>
+    <t>81,8%</t>
+  </si>
+  <si>
+    <t>79,62%</t>
+  </si>
+  <si>
+    <t>84,17%</t>
+  </si>
+  <si>
+    <t>82,0%</t>
+  </si>
+  <si>
+    <t>80,34%</t>
+  </si>
+  <si>
+    <t>83,54%</t>
+  </si>
+  <si>
+    <t>15,24%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>15,47%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>17,57%</t>
+  </si>
+  <si>
+    <t>15,35%</t>
+  </si>
+  <si>
+    <t>13,87%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Población según si en el barrio donde vive la contaminación es elevada en 2012 (Tasa respuesta: 99,48%)</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>86,6%</t>
+  </si>
+  <si>
+    <t>92,94%</t>
+  </si>
+  <si>
+    <t>98,46%</t>
+  </si>
+  <si>
+    <t>91,3%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
+  </si>
+  <si>
+    <t>7,06%</t>
+  </si>
+  <si>
+    <t>1,54%</t>
+  </si>
+  <si>
+    <t>8,7%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
+    <t>92,81%</t>
+  </si>
+  <si>
+    <t>98,73%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>90,19%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>95,62%</t>
+  </si>
+  <si>
+    <t>92,71%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,64%</t>
+  </si>
+  <si>
+    <t>88,81%</t>
+  </si>
+  <si>
+    <t>85,08%</t>
+  </si>
+  <si>
+    <t>91,6%</t>
+  </si>
+  <si>
+    <t>89,99%</t>
+  </si>
+  <si>
+    <t>86,21%</t>
+  </si>
+  <si>
+    <t>93,02%</t>
+  </si>
+  <si>
+    <t>89,37%</t>
+  </si>
+  <si>
+    <t>86,73%</t>
+  </si>
+  <si>
+    <t>91,4%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>87,01%</t>
+  </si>
+  <si>
+    <t>82,94%</t>
+  </si>
+  <si>
+    <t>90,64%</t>
+  </si>
+  <si>
+    <t>88,16%</t>
+  </si>
+  <si>
+    <t>83,36%</t>
+  </si>
+  <si>
+    <t>92,03%</t>
+  </si>
+  <si>
+    <t>87,56%</t>
+  </si>
+  <si>
+    <t>84,61%</t>
+  </si>
+  <si>
+    <t>90,54%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>10,98%</t>
+  </si>
+  <si>
+    <t>7,33%</t>
+  </si>
+  <si>
+    <t>15,49%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>14,72%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>81,54%</t>
+  </si>
+  <si>
+    <t>76,42%</t>
+  </si>
+  <si>
+    <t>85,62%</t>
+  </si>
+  <si>
+    <t>81,39%</t>
+  </si>
+  <si>
+    <t>76,21%</t>
+  </si>
+  <si>
+    <t>85,14%</t>
+  </si>
+  <si>
+    <t>81,47%</t>
+  </si>
+  <si>
+    <t>77,47%</t>
+  </si>
+  <si>
+    <t>84,26%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>21,14%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
+    <t>19,47%</t>
+  </si>
+  <si>
+    <t>2,82%</t>
+  </si>
+  <si>
+    <t>1,36%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>2,48%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>88,05%</t>
+  </si>
+  <si>
+    <t>85,8%</t>
+  </si>
+  <si>
+    <t>89,79%</t>
+  </si>
+  <si>
+    <t>88,14%</t>
+  </si>
+  <si>
+    <t>90,05%</t>
+  </si>
+  <si>
+    <t>88,1%</t>
+  </si>
+  <si>
+    <t>86,61%</t>
+  </si>
+  <si>
+    <t>89,4%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>11,92%</t>
+  </si>
+  <si>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>Población según si en el barrio donde vive la contaminación es elevada en 2016 (Tasa respuesta: 99,29%)</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
+  </si>
+  <si>
+    <t>86,68%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>94,1%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>89,86%</t>
+  </si>
+  <si>
+    <t>95,33%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>13,32%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>10,14%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>87,52%</t>
+  </si>
+  <si>
+    <t>83,12%</t>
+  </si>
+  <si>
+    <t>90,76%</t>
+  </si>
+  <si>
+    <t>87,92%</t>
+  </si>
+  <si>
+    <t>91,42%</t>
+  </si>
+  <si>
+    <t>87,71%</t>
+  </si>
+  <si>
+    <t>85,2%</t>
+  </si>
+  <si>
+    <t>90,07%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>11,47%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>4,13%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>76,65%</t>
+  </si>
+  <si>
+    <t>70,94%</t>
+  </si>
+  <si>
+    <t>81,55%</t>
+  </si>
+  <si>
+    <t>75,17%</t>
+  </si>
+  <si>
+    <t>69,1%</t>
+  </si>
+  <si>
+    <t>80,17%</t>
+  </si>
+  <si>
+    <t>75,93%</t>
+  </si>
+  <si>
+    <t>71,95%</t>
+  </si>
+  <si>
+    <t>79,49%</t>
+  </si>
+  <si>
+    <t>16,8%</t>
+  </si>
+  <si>
+    <t>12,57%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
   </si>
   <si>
     <t>17,2%</t>
   </si>
   <si>
-    <t>Mucho</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>3,04%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>89,46%</t>
-  </si>
-  <si>
-    <t>84,78%</t>
-  </si>
-  <si>
-    <t>93,6%</t>
-  </si>
-  <si>
-    <t>86,16%</t>
-  </si>
-  <si>
-    <t>81,01%</t>
-  </si>
-  <si>
-    <t>90,73%</t>
-  </si>
-  <si>
-    <t>87,88%</t>
-  </si>
-  <si>
-    <t>84,4%</t>
-  </si>
-  <si>
-    <t>91,01%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>13,75%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>16,62%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
+    <t>12,82%</t>
+  </si>
+  <si>
+    <t>22,26%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>13,82%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>10,71%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>79,75%</t>
+  </si>
+  <si>
+    <t>74,82%</t>
+  </si>
+  <si>
+    <t>84,11%</t>
+  </si>
+  <si>
+    <t>77,13%</t>
+  </si>
+  <si>
+    <t>86,51%</t>
+  </si>
+  <si>
+    <t>80,88%</t>
+  </si>
+  <si>
+    <t>77,34%</t>
+  </si>
+  <si>
+    <t>83,87%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>23,14%</t>
+  </si>
+  <si>
+    <t>10,7%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>16,53%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>19,57%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>84,13%</t>
+  </si>
+  <si>
+    <t>81,81%</t>
+  </si>
+  <si>
+    <t>86,2%</t>
+  </si>
+  <si>
+    <t>84,73%</t>
+  </si>
+  <si>
+    <t>82,53%</t>
+  </si>
+  <si>
+    <t>86,93%</t>
+  </si>
+  <si>
+    <t>84,42%</t>
+  </si>
+  <si>
+    <t>82,82%</t>
+  </si>
+  <si>
+    <t>85,94%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>10,63%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>Población según si en el barrio donde vive la contaminación es elevada en 2023 (Tasa respuesta: 99,53%)</t>
+  </si>
+  <si>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>1,88%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
+  </si>
+  <si>
+    <t>89,94%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>92,43%</t>
+  </si>
+  <si>
+    <t>88,78%</t>
+  </si>
+  <si>
+    <t>94,98%</t>
+  </si>
+  <si>
+    <t>92,87%</t>
+  </si>
+  <si>
+    <t>90,46%</t>
+  </si>
+  <si>
+    <t>94,67%</t>
+  </si>
+  <si>
+    <t>2,94%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>3,14%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>6,29%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>93,75%</t>
+  </si>
+  <si>
+    <t>89,48%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>87,37%</t>
+  </si>
+  <si>
+    <t>70,75%</t>
+  </si>
+  <si>
+    <t>93,49%</t>
+  </si>
+  <si>
+    <t>90,6%</t>
+  </si>
+  <si>
+    <t>81,42%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>11,88%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>28,91%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>17,91%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>85,65%</t>
+  </si>
+  <si>
+    <t>80,26%</t>
+  </si>
+  <si>
+    <t>89,78%</t>
+  </si>
+  <si>
+    <t>87,77%</t>
+  </si>
+  <si>
+    <t>83,3%</t>
+  </si>
+  <si>
+    <t>92,08%</t>
+  </si>
+  <si>
+    <t>86,7%</t>
+  </si>
+  <si>
+    <t>83,21%</t>
+  </si>
+  <si>
+    <t>89,35%</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
   </si>
   <si>
     <t>7,81%</t>
   </si>
   <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>3,46%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>1,46%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>87,0%</t>
-  </si>
-  <si>
-    <t>82,73%</t>
-  </si>
-  <si>
-    <t>90,26%</t>
-  </si>
-  <si>
-    <t>87,1%</t>
-  </si>
-  <si>
-    <t>83,08%</t>
-  </si>
-  <si>
-    <t>90,67%</t>
-  </si>
-  <si>
-    <t>87,05%</t>
-  </si>
-  <si>
-    <t>84,36%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>14,67%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>11,34%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
+  </si>
+  <si>
+    <t>92,36%</t>
+  </si>
+  <si>
+    <t>90,52%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>90,69%</t>
+  </si>
+  <si>
+    <t>86,34%</t>
+  </si>
+  <si>
+    <t>92,84%</t>
+  </si>
+  <si>
+    <t>91,57%</t>
+  </si>
+  <si>
+    <t>89,18%</t>
+  </si>
+  <si>
+    <t>92,82%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>7,62%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>12,12%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
   </si>
   <si>
     <t>2,85%</t>
   </si>
   <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>78,89%</t>
-  </si>
-  <si>
-    <t>73,28%</t>
-  </si>
-  <si>
-    <t>83,27%</t>
-  </si>
-  <si>
-    <t>78,9%</t>
-  </si>
-  <si>
-    <t>73,04%</t>
-  </si>
-  <si>
-    <t>83,53%</t>
-  </si>
-  <si>
-    <t>75,3%</t>
-  </si>
-  <si>
-    <t>82,22%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>23,21%</t>
-  </si>
-  <si>
-    <t>19,05%</t>
-  </si>
-  <si>
-    <t>24,84%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>15,59%</t>
-  </si>
-  <si>
-    <t>22,45%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>74,17%</t>
-  </si>
-  <si>
-    <t>69,15%</t>
-  </si>
-  <si>
-    <t>79,18%</t>
-  </si>
-  <si>
-    <t>74,78%</t>
-  </si>
-  <si>
-    <t>69,57%</t>
-  </si>
-  <si>
-    <t>79,79%</t>
-  </si>
-  <si>
-    <t>74,48%</t>
-  </si>
-  <si>
-    <t>70,99%</t>
-  </si>
-  <si>
-    <t>78,24%</t>
-  </si>
-  <si>
-    <t>21,97%</t>
-  </si>
-  <si>
-    <t>17,48%</t>
-  </si>
-  <si>
-    <t>27,2%</t>
-  </si>
-  <si>
-    <t>19,58%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>24,6%</t>
-  </si>
-  <si>
-    <t>20,77%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>24,38%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>82,19%</t>
-  </si>
-  <si>
-    <t>79,75%</t>
-  </si>
-  <si>
-    <t>84,33%</t>
-  </si>
-  <si>
-    <t>81,8%</t>
-  </si>
-  <si>
-    <t>79,19%</t>
-  </si>
-  <si>
-    <t>84,1%</t>
-  </si>
-  <si>
-    <t>82,0%</t>
-  </si>
-  <si>
-    <t>80,45%</t>
-  </si>
-  <si>
-    <t>83,64%</t>
-  </si>
-  <si>
-    <t>15,24%</t>
-  </si>
-  <si>
-    <t>13,23%</t>
-  </si>
-  <si>
-    <t>17,75%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>17,7%</t>
-  </si>
-  <si>
-    <t>15,35%</t>
-  </si>
-  <si>
-    <t>13,76%</t>
-  </si>
-  <si>
-    <t>16,81%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>1,85%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>2,65%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Población según si en el barrio donde vive la contaminación es elevada en 2012 (Tasa respuesta: 99,48%)</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>87,19%</t>
-  </si>
-  <si>
-    <t>92,94%</t>
-  </si>
-  <si>
-    <t>98,46%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>7,06%</t>
-  </si>
-  <si>
-    <t>1,54%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>98,77%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>90,21%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>95,62%</t>
-  </si>
-  <si>
-    <t>92,78%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>6,16%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>88,81%</t>
-  </si>
-  <si>
-    <t>84,93%</t>
-  </si>
-  <si>
-    <t>91,82%</t>
-  </si>
-  <si>
-    <t>89,99%</t>
-  </si>
-  <si>
-    <t>86,58%</t>
-  </si>
-  <si>
-    <t>92,86%</t>
-  </si>
-  <si>
-    <t>89,37%</t>
-  </si>
-  <si>
-    <t>86,71%</t>
-  </si>
-  <si>
-    <t>91,81%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>13,48%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>11,29%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>87,01%</t>
-  </si>
-  <si>
-    <t>82,28%</t>
-  </si>
-  <si>
-    <t>90,69%</t>
-  </si>
-  <si>
-    <t>88,16%</t>
-  </si>
-  <si>
-    <t>83,51%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
-  </si>
-  <si>
-    <t>87,56%</t>
-  </si>
-  <si>
-    <t>84,34%</t>
-  </si>
-  <si>
-    <t>90,13%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>9,14%</t>
-  </si>
-  <si>
-    <t>17,21%</t>
-  </si>
-  <si>
-    <t>10,98%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>14,98%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>81,54%</t>
-  </si>
-  <si>
-    <t>76,84%</t>
-  </si>
-  <si>
-    <t>85,73%</t>
-  </si>
-  <si>
-    <t>81,39%</t>
-  </si>
-  <si>
-    <t>76,88%</t>
-  </si>
-  <si>
-    <t>85,93%</t>
-  </si>
-  <si>
-    <t>81,47%</t>
-  </si>
-  <si>
-    <t>77,86%</t>
-  </si>
-  <si>
-    <t>84,77%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>12,74%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>2,82%</t>
-  </si>
-  <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>2,48%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>88,05%</t>
-  </si>
-  <si>
-    <t>86,19%</t>
-  </si>
-  <si>
-    <t>90,02%</t>
-  </si>
-  <si>
-    <t>88,14%</t>
-  </si>
-  <si>
-    <t>85,95%</t>
-  </si>
-  <si>
-    <t>89,89%</t>
-  </si>
-  <si>
-    <t>88,1%</t>
-  </si>
-  <si>
-    <t>86,69%</t>
-  </si>
-  <si>
-    <t>89,43%</t>
-  </si>
-  <si>
-    <t>10,55%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>12,35%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>1,6%</t>
-  </si>
-  <si>
-    <t>1,0%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>2,08%</t>
-  </si>
-  <si>
-    <t>Población según si en el barrio donde vive la contaminación es elevada en 2015 (Tasa respuesta: 99,29%)</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>92,04%</t>
-  </si>
-  <si>
-    <t>86,92%</t>
-  </si>
-  <si>
-    <t>95,63%</t>
-  </si>
-  <si>
-    <t>94,1%</t>
-  </si>
-  <si>
-    <t>97,15%</t>
-  </si>
-  <si>
-    <t>93,02%</t>
-  </si>
-  <si>
-    <t>89,6%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>5,9%</t>
-  </si>
-  <si>
-    <t>10,54%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>10,4%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>87,52%</t>
-  </si>
-  <si>
-    <t>83,4%</t>
-  </si>
-  <si>
-    <t>90,72%</t>
-  </si>
-  <si>
-    <t>87,92%</t>
-  </si>
-  <si>
-    <t>83,76%</t>
-  </si>
-  <si>
-    <t>87,71%</t>
-  </si>
-  <si>
-    <t>85,15%</t>
-  </si>
-  <si>
-    <t>90,04%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>10,57%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>4,13%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>76,65%</t>
-  </si>
-  <si>
-    <t>71,53%</t>
-  </si>
-  <si>
-    <t>82,15%</t>
-  </si>
-  <si>
-    <t>75,17%</t>
-  </si>
-  <si>
-    <t>69,76%</t>
-  </si>
-  <si>
-    <t>80,35%</t>
-  </si>
-  <si>
-    <t>75,93%</t>
-  </si>
-  <si>
-    <t>71,89%</t>
-  </si>
-  <si>
-    <t>79,66%</t>
-  </si>
-  <si>
-    <t>16,8%</t>
-  </si>
-  <si>
-    <t>12,16%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>12,78%</t>
-  </si>
-  <si>
-    <t>21,93%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>20,51%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>10,35%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>5,27%</t>
-  </si>
-  <si>
-    <t>10,18%</t>
-  </si>
-  <si>
-    <t>74,45%</t>
-  </si>
-  <si>
-    <t>84,08%</t>
-  </si>
-  <si>
-    <t>77,55%</t>
-  </si>
-  <si>
-    <t>80,88%</t>
-  </si>
-  <si>
-    <t>77,52%</t>
-  </si>
-  <si>
-    <t>83,99%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>14,57%</t>
-  </si>
-  <si>
-    <t>18,93%</t>
-  </si>
-  <si>
-    <t>16,53%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>19,77%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>1,44%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>84,13%</t>
-  </si>
-  <si>
-    <t>81,86%</t>
-  </si>
-  <si>
-    <t>86,23%</t>
-  </si>
-  <si>
-    <t>84,73%</t>
-  </si>
-  <si>
-    <t>82,58%</t>
-  </si>
-  <si>
-    <t>86,73%</t>
-  </si>
-  <si>
-    <t>84,42%</t>
-  </si>
-  <si>
-    <t>82,76%</t>
-  </si>
-  <si>
-    <t>85,8%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>10,68%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>13,39%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>2,27%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
-  </si>
-  <si>
-    <t>Población según si en el barrio donde vive la contaminación es elevada en 2023 (Tasa respuesta: 99,53%)</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>94,02%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>91,64%</t>
-  </si>
-  <si>
-    <t>98,25%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>98,28%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>4,38%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
-  </si>
-  <si>
-    <t>89,5%</t>
-  </si>
-  <si>
-    <t>95,72%</t>
-  </si>
-  <si>
-    <t>92,43%</t>
-  </si>
-  <si>
-    <t>88,86%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>92,87%</t>
-  </si>
-  <si>
-    <t>90,45%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>93,75%</t>
-  </si>
-  <si>
-    <t>89,53%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>87,37%</t>
-  </si>
-  <si>
-    <t>70,41%</t>
-  </si>
-  <si>
-    <t>93,47%</t>
-  </si>
-  <si>
-    <t>90,6%</t>
-  </si>
-  <si>
-    <t>81,16%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>11,88%</t>
-  </si>
-  <si>
-    <t>5,82%</t>
-  </si>
-  <si>
-    <t>29,85%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>17,77%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>85,65%</t>
-  </si>
-  <si>
-    <t>80,47%</t>
-  </si>
-  <si>
-    <t>89,82%</t>
-  </si>
-  <si>
-    <t>87,77%</t>
-  </si>
-  <si>
-    <t>83,19%</t>
-  </si>
-  <si>
-    <t>91,78%</t>
-  </si>
-  <si>
-    <t>86,7%</t>
-  </si>
-  <si>
-    <t>83,29%</t>
-  </si>
-  <si>
-    <t>89,64%</t>
-  </si>
-  <si>
-    <t>10,24%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>14,78%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>14,73%</t>
-  </si>
-  <si>
-    <t>10,34%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>13,29%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>4,45%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>92,36%</t>
-  </si>
-  <si>
-    <t>90,37%</t>
-  </si>
-  <si>
-    <t>93,99%</t>
-  </si>
-  <si>
-    <t>86,57%</t>
-  </si>
-  <si>
-    <t>92,85%</t>
-  </si>
-  <si>
-    <t>91,57%</t>
-  </si>
-  <si>
-    <t>89,17%</t>
-  </si>
-  <si>
-    <t>92,97%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>5,4%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
     <t>1,87%</t>
   </si>
   <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
+    <t>2,95%</t>
   </si>
 </sst>
 </file>
@@ -2082,7 +2058,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C30E4D8-2259-43E3-843F-BA88D7887E0A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7010ECF1-B9EE-453D-A9AA-0DEF54574289}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2466,10 +2442,10 @@
         <v>46</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>32</v>
+        <v>47</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H9" s="7">
         <v>22</v>
@@ -2478,13 +2454,13 @@
         <v>13955</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M9" s="7">
         <v>40</v>
@@ -2493,13 +2469,13 @@
         <v>25817</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -2514,13 +2490,13 @@
         <v>1453</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>25</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="H10" s="7">
         <v>3</v>
@@ -2529,13 +2505,13 @@
         <v>2096</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M10" s="7">
         <v>5</v>
@@ -2544,13 +2520,13 @@
         <v>3549</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2606,7 +2582,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -2618,13 +2594,13 @@
         <v>184561</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="H12" s="7">
         <v>269</v>
@@ -2633,13 +2609,13 @@
         <v>168445</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="M12" s="7">
         <v>550</v>
@@ -2648,13 +2624,13 @@
         <v>353006</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2669,13 +2645,13 @@
         <v>22868</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H13" s="7">
         <v>37</v>
@@ -2684,13 +2660,13 @@
         <v>23129</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="M13" s="7">
         <v>71</v>
@@ -2699,13 +2675,13 @@
         <v>45997</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2720,13 +2696,13 @@
         <v>4713</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="H14" s="7">
         <v>3</v>
@@ -2735,13 +2711,13 @@
         <v>1821</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="M14" s="7">
         <v>10</v>
@@ -2750,13 +2726,13 @@
         <v>6534</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2812,7 +2788,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2824,13 +2800,13 @@
         <v>118062</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H16" s="7">
         <v>180</v>
@@ -2839,13 +2815,13 @@
         <v>108378</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="M16" s="7">
         <v>362</v>
@@ -2854,13 +2830,13 @@
         <v>226440</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2875,13 +2851,13 @@
         <v>27237</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="H17" s="7">
         <v>43</v>
@@ -2890,13 +2866,13 @@
         <v>26164</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>74</v>
+        <v>104</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="M17" s="7">
         <v>86</v>
@@ -2905,13 +2881,13 @@
         <v>53400</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2929,10 +2905,10 @@
         <v>22</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H18" s="7">
         <v>5</v>
@@ -2941,13 +2917,13 @@
         <v>2828</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="M18" s="7">
         <v>12</v>
@@ -2956,13 +2932,13 @@
         <v>7186</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3018,7 +2994,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -3030,13 +3006,13 @@
         <v>153650</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H20" s="7">
         <v>204</v>
@@ -3045,13 +3021,13 @@
         <v>155941</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="M20" s="7">
         <v>432</v>
@@ -3060,13 +3036,13 @@
         <v>309591</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3081,13 +3057,13 @@
         <v>45512</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="H21" s="7">
         <v>53</v>
@@ -3096,13 +3072,13 @@
         <v>40827</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="M21" s="7">
         <v>118</v>
@@ -3111,13 +3087,13 @@
         <v>86339</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3132,13 +3108,13 @@
         <v>7992</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="H22" s="7">
         <v>16</v>
@@ -3147,13 +3123,13 @@
         <v>11768</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>137</v>
+        <v>62</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="M22" s="7">
         <v>28</v>
@@ -3162,13 +3138,13 @@
         <v>19760</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3236,13 +3212,13 @@
         <v>592306</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H24" s="7">
         <v>830</v>
@@ -3251,13 +3227,13 @@
         <v>554606</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="M24" s="7">
         <v>1722</v>
@@ -3266,13 +3242,13 @@
         <v>1146911</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3287,13 +3263,13 @@
         <v>109862</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="H25" s="7">
         <v>156</v>
@@ -3302,13 +3278,13 @@
         <v>104908</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="M25" s="7">
         <v>319</v>
@@ -3317,13 +3293,13 @@
         <v>214770</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3338,13 +3314,13 @@
         <v>18516</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>24</v>
+        <v>163</v>
       </c>
       <c r="H26" s="7">
         <v>27</v>
@@ -3353,13 +3329,13 @@
         <v>18514</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="M26" s="7">
         <v>55</v>
@@ -3368,13 +3344,13 @@
         <v>37029</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3430,7 +3406,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -3451,7 +3427,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{983D166D-E3AA-4C1C-BA24-EF2F985766B3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9ED336C-6B27-4844-9E10-DB230B6AA943}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3468,7 +3444,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3575,10 +3551,10 @@
         <v>24718</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>16</v>
@@ -3593,7 +3569,7 @@
         <v>16</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>35</v>
@@ -3605,10 +3581,10 @@
         <v>47091</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>16</v>
@@ -3626,13 +3602,13 @@
         <v>737</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>25</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -3647,7 +3623,7 @@
         <v>31</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="M5" s="7">
         <v>1</v>
@@ -3656,13 +3632,13 @@
         <v>737</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>25</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3683,7 +3659,7 @@
         <v>31</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -3698,7 +3674,7 @@
         <v>31</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -3713,7 +3689,7 @@
         <v>31</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3781,13 +3757,13 @@
         <v>124796</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="H8" s="7">
         <v>154</v>
@@ -3796,13 +3772,13 @@
         <v>110629</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="M8" s="7">
         <v>331</v>
@@ -3811,13 +3787,13 @@
         <v>235424</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3832,13 +3808,13 @@
         <v>3627</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="H9" s="7">
         <v>9</v>
@@ -3847,13 +3823,13 @@
         <v>6355</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="M9" s="7">
         <v>14</v>
@@ -3862,13 +3838,13 @@
         <v>9982</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3883,13 +3859,13 @@
         <v>806</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="F10" s="7" t="s">
         <v>25</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -3904,7 +3880,7 @@
         <v>31</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="M10" s="7">
         <v>1</v>
@@ -3913,13 +3889,13 @@
         <v>806</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="P10" s="7" t="s">
         <v>25</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3975,7 +3951,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -3987,13 +3963,13 @@
         <v>198787</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="H12" s="7">
         <v>286</v>
@@ -4002,13 +3978,13 @@
         <v>185123</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="M12" s="7">
         <v>573</v>
@@ -4017,13 +3993,13 @@
         <v>383910</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4038,13 +4014,13 @@
         <v>21757</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="H13" s="7">
         <v>25</v>
@@ -4053,13 +4029,13 @@
         <v>15741</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="M13" s="7">
         <v>57</v>
@@ -4068,13 +4044,13 @@
         <v>37498</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4089,13 +4065,13 @@
         <v>3292</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>224</v>
+        <v>61</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H14" s="7">
         <v>7</v>
@@ -4104,7 +4080,7 @@
         <v>4856</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>226</v>
+        <v>200</v>
       </c>
       <c r="K14" s="7" t="s">
         <v>227</v>
@@ -4122,10 +4098,10 @@
         <v>229</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>82</v>
+        <v>230</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4181,7 +4157,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4193,13 +4169,13 @@
         <v>144958</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="H16" s="7">
         <v>213</v>
@@ -4208,13 +4184,13 @@
         <v>136972</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="M16" s="7">
         <v>434</v>
@@ -4223,13 +4199,13 @@
         <v>281930</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4244,13 +4220,13 @@
         <v>21006</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H17" s="7">
         <v>27</v>
@@ -4259,13 +4235,13 @@
         <v>17061</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M17" s="7">
         <v>61</v>
@@ -4274,13 +4250,13 @@
         <v>38067</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4295,13 +4271,13 @@
         <v>628</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>25</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H18" s="7">
         <v>2</v>
@@ -4310,13 +4286,13 @@
         <v>1343</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>25</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>252</v>
+        <v>183</v>
       </c>
       <c r="M18" s="7">
         <v>3</v>
@@ -4331,7 +4307,7 @@
         <v>254</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>255</v>
+        <v>206</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -4387,7 +4363,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -4399,13 +4375,13 @@
         <v>166286</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>255</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>258</v>
       </c>
       <c r="H20" s="7">
         <v>221</v>
@@ -4414,13 +4390,13 @@
         <v>168506</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>260</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>261</v>
       </c>
       <c r="M20" s="7">
         <v>448</v>
@@ -4429,13 +4405,13 @@
         <v>334792</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4450,10 +4426,10 @@
         <v>31886</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>264</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>265</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="G21" s="7" t="s">
         <v>266</v>
@@ -4471,7 +4447,7 @@
         <v>268</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>130</v>
+        <v>269</v>
       </c>
       <c r="M21" s="7">
         <v>85</v>
@@ -4480,13 +4456,13 @@
         <v>65268</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -4501,13 +4477,13 @@
         <v>5749</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H22" s="7">
         <v>7</v>
@@ -4516,13 +4492,13 @@
         <v>5138</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="M22" s="7">
         <v>15</v>
@@ -4531,13 +4507,13 @@
         <v>10887</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4605,13 +4581,13 @@
         <v>659544</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H24" s="7">
         <v>900</v>
@@ -4620,10 +4596,10 @@
         <v>623603</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>283</v>
+        <v>40</v>
       </c>
       <c r="L24" s="7" t="s">
         <v>284</v>
@@ -4662,7 +4638,7 @@
         <v>289</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>290</v>
+        <v>241</v>
       </c>
       <c r="H25" s="7">
         <v>104</v>
@@ -4671,13 +4647,13 @@
         <v>72540</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>291</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>292</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>293</v>
       </c>
       <c r="M25" s="7">
         <v>218</v>
@@ -4686,13 +4662,13 @@
         <v>151553</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>295</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>296</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4707,13 +4683,13 @@
         <v>10475</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="F26" s="7" t="s">
-        <v>88</v>
-      </c>
       <c r="G26" s="7" t="s">
-        <v>298</v>
+        <v>197</v>
       </c>
       <c r="H26" s="7">
         <v>16</v>
@@ -4722,13 +4698,13 @@
         <v>11337</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>299</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>301</v>
       </c>
       <c r="M26" s="7">
         <v>31</v>
@@ -4737,13 +4713,13 @@
         <v>21812</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>302</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4799,7 +4775,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -4820,7 +4796,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6846148F-BBE4-4342-A510-FB48EE847872}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6505CEA3-87A1-46EC-8BFB-CF852FB36FB2}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4837,7 +4813,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4947,7 +4923,7 @@
         <v>16</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>35</v>
@@ -4962,7 +4938,7 @@
         <v>16</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>35</v>
@@ -4977,7 +4953,7 @@
         <v>16</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="Q4" s="7" t="s">
         <v>35</v>
@@ -5001,7 +4977,7 @@
         <v>31</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -5016,7 +4992,7 @@
         <v>31</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -5031,7 +5007,7 @@
         <v>31</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5052,7 +5028,7 @@
         <v>31</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -5067,7 +5043,7 @@
         <v>31</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -5082,7 +5058,7 @@
         <v>31</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5150,13 +5126,13 @@
         <v>111860</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>310</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>311</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>312</v>
       </c>
       <c r="H8" s="7">
         <v>154</v>
@@ -5165,13 +5141,13 @@
         <v>104617</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>313</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>314</v>
       </c>
       <c r="M8" s="7">
         <v>305</v>
@@ -5180,13 +5156,13 @@
         <v>216477</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>315</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>317</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5201,13 +5177,13 @@
         <v>9676</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>318</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>320</v>
       </c>
       <c r="H9" s="7">
         <v>9</v>
@@ -5216,13 +5192,13 @@
         <v>6563</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>86</v>
+        <v>164</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="M9" s="7">
         <v>22</v>
@@ -5231,13 +5207,13 @@
         <v>16239</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="P9" s="7" t="s">
+        <v>322</v>
+      </c>
+      <c r="Q9" s="7" t="s">
         <v>323</v>
-      </c>
-      <c r="P9" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -5258,7 +5234,7 @@
         <v>31</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="H10" s="7">
         <v>0</v>
@@ -5273,7 +5249,7 @@
         <v>31</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="M10" s="7">
         <v>0</v>
@@ -5288,7 +5264,7 @@
         <v>31</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5344,7 +5320,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -5356,13 +5332,13 @@
         <v>196349</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>325</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>327</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>329</v>
       </c>
       <c r="H12" s="7">
         <v>293</v>
@@ -5371,13 +5347,13 @@
         <v>181276</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>331</v>
+        <v>148</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>45</v>
+        <v>329</v>
       </c>
       <c r="M12" s="7">
         <v>584</v>
@@ -5386,13 +5362,13 @@
         <v>377625</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>331</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>332</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>333</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>334</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -5407,13 +5383,13 @@
         <v>19103</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>334</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>335</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>337</v>
       </c>
       <c r="H13" s="7">
         <v>25</v>
@@ -5422,13 +5398,13 @@
         <v>16391</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>336</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>338</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>339</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>340</v>
       </c>
       <c r="M13" s="7">
         <v>53</v>
@@ -5437,13 +5413,13 @@
         <v>35494</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>339</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>341</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>342</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>343</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5458,13 +5434,13 @@
         <v>8907</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>346</v>
+        <v>182</v>
       </c>
       <c r="H14" s="7">
         <v>14</v>
@@ -5473,13 +5449,13 @@
         <v>8509</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>226</v>
+        <v>345</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="M14" s="7">
         <v>27</v>
@@ -5488,13 +5464,13 @@
         <v>17416</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5550,7 +5526,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5562,13 +5538,13 @@
         <v>127226</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>351</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>353</v>
       </c>
       <c r="H16" s="7">
         <v>195</v>
@@ -5577,13 +5553,13 @@
         <v>116426</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>354</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>356</v>
       </c>
       <c r="M16" s="7">
         <v>387</v>
@@ -5592,13 +5568,13 @@
         <v>243651</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>357</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5613,13 +5589,13 @@
         <v>27878</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>360</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>362</v>
       </c>
       <c r="H17" s="7">
         <v>43</v>
@@ -5628,13 +5604,13 @@
         <v>26646</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>29</v>
+        <v>361</v>
       </c>
       <c r="K17" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>363</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>364</v>
       </c>
       <c r="M17" s="7">
         <v>83</v>
@@ -5643,13 +5619,13 @@
         <v>54524</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>365</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>366</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5664,13 +5640,13 @@
         <v>10881</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="F18" s="7" t="s">
         <v>368</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>369</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>370</v>
       </c>
       <c r="H18" s="7">
         <v>19</v>
@@ -5679,13 +5655,13 @@
         <v>11816</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="K18" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="K18" s="7" t="s">
+      <c r="L18" s="7" t="s">
         <v>372</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>373</v>
       </c>
       <c r="M18" s="7">
         <v>34</v>
@@ -5694,13 +5670,13 @@
         <v>22697</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="P18" s="7" t="s">
         <v>374</v>
       </c>
-      <c r="P18" s="7" t="s">
+      <c r="Q18" s="7" t="s">
         <v>375</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>376</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5756,7 +5732,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -5768,7 +5744,7 @@
         <v>161227</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>143</v>
+        <v>376</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>377</v>
@@ -5783,13 +5759,13 @@
         <v>168057</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>379</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>40</v>
+        <v>380</v>
       </c>
       <c r="M20" s="7">
         <v>451</v>
@@ -5798,13 +5774,13 @@
         <v>329284</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5819,10 +5795,10 @@
         <v>37453</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>384</v>
+        <v>48</v>
       </c>
       <c r="G21" s="7" t="s">
         <v>385</v>
@@ -5834,10 +5810,10 @@
         <v>29859</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="K21" s="7" t="s">
         <v>386</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>373</v>
       </c>
       <c r="L21" s="7" t="s">
         <v>387</v>
@@ -5870,13 +5846,13 @@
         <v>3479</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F22" s="7" t="s">
         <v>391</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="G22" s="7" t="s">
         <v>392</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>393</v>
       </c>
       <c r="H22" s="7">
         <v>9</v>
@@ -5885,13 +5861,13 @@
         <v>7029</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>394</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>395</v>
       </c>
       <c r="M22" s="7">
         <v>14</v>
@@ -5900,13 +5876,13 @@
         <v>10508</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>395</v>
+      </c>
+      <c r="P22" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="Q22" s="7" t="s">
         <v>396</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5974,13 +5950,13 @@
         <v>622237</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>399</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>401</v>
       </c>
       <c r="H24" s="7">
         <v>892</v>
@@ -5989,28 +5965,28 @@
         <v>592902</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>402</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>403</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>404</v>
       </c>
       <c r="M24" s="7">
         <v>1781</v>
       </c>
       <c r="N24" s="7">
-        <v>1215138</v>
+        <v>1215139</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>405</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6025,13 +6001,13 @@
         <v>94110</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>408</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>409</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>410</v>
       </c>
       <c r="H25" s="7">
         <v>119</v>
@@ -6040,28 +6016,28 @@
         <v>79458</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>411</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>413</v>
       </c>
       <c r="M25" s="7">
         <v>255</v>
       </c>
       <c r="N25" s="7">
-        <v>173568</v>
+        <v>173569</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>414</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>366</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6076,13 +6052,13 @@
         <v>23267</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>201</v>
+        <v>415</v>
       </c>
       <c r="F26" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>416</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>417</v>
       </c>
       <c r="H26" s="7">
         <v>42</v>
@@ -6091,13 +6067,13 @@
         <v>27354</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>418</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>419</v>
       </c>
       <c r="M26" s="7">
         <v>75</v>
@@ -6106,13 +6082,13 @@
         <v>50621</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>420</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>421</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6154,7 +6130,7 @@
         <v>2111</v>
       </c>
       <c r="N27" s="7">
-        <v>1439328</v>
+        <v>1439329</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>35</v>
@@ -6168,7 +6144,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
@@ -6189,7 +6165,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52F0624F-D909-44B2-B804-42E7CACDB8C4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7336B954-D54B-4072-9BA4-E8F422C8550D}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6385,7 +6361,7 @@
         <v>31</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -6436,7 +6412,7 @@
         <v>31</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -6642,7 +6618,7 @@
         <v>25</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>449</v>
+        <v>396</v>
       </c>
       <c r="M10" s="7">
         <v>3</v>
@@ -6651,13 +6627,13 @@
         <v>1664</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>449</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>450</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>451</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>452</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6713,7 +6689,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -6725,13 +6701,13 @@
         <v>233205</v>
       </c>
       <c r="E12" s="7" t="s">
+        <v>452</v>
+      </c>
+      <c r="F12" s="7" t="s">
         <v>453</v>
       </c>
-      <c r="F12" s="7" t="s">
+      <c r="G12" s="7" t="s">
         <v>454</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>455</v>
       </c>
       <c r="H12" s="7">
         <v>258</v>
@@ -6740,13 +6716,13 @@
         <v>177784</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>455</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>456</v>
       </c>
-      <c r="K12" s="7" t="s">
+      <c r="L12" s="7" t="s">
         <v>457</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>458</v>
       </c>
       <c r="M12" s="7">
         <v>577</v>
@@ -6755,13 +6731,13 @@
         <v>410989</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>458</v>
+      </c>
+      <c r="P12" s="7" t="s">
         <v>459</v>
       </c>
-      <c r="P12" s="7" t="s">
+      <c r="Q12" s="7" t="s">
         <v>460</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6776,13 +6752,13 @@
         <v>12212</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>461</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>462</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>463</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>464</v>
       </c>
       <c r="H13" s="7">
         <v>13</v>
@@ -6791,13 +6767,13 @@
         <v>7998</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>226</v>
+        <v>197</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="M13" s="7">
         <v>30</v>
@@ -6806,13 +6782,13 @@
         <v>20210</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>469</v>
+        <v>182</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6827,13 +6803,13 @@
         <v>4770</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>251</v>
+        <v>449</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>471</v>
+        <v>344</v>
       </c>
       <c r="H14" s="7">
         <v>9</v>
@@ -6842,13 +6818,13 @@
         <v>6570</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>472</v>
+        <v>169</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>59</v>
+        <v>28</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="M14" s="7">
         <v>16</v>
@@ -6857,13 +6833,13 @@
         <v>11339</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>59</v>
+        <v>470</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6919,7 +6895,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6931,13 +6907,13 @@
         <v>161542</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="H16" s="7">
         <v>206</v>
@@ -6946,13 +6922,13 @@
         <v>146405</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="M16" s="7">
         <v>415</v>
@@ -6961,13 +6937,13 @@
         <v>307947</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6982,13 +6958,13 @@
         <v>9805</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>439</v>
+        <v>481</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>485</v>
+        <v>417</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
       <c r="H17" s="7">
         <v>17</v>
@@ -6997,13 +6973,13 @@
         <v>19901</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
       <c r="M17" s="7">
         <v>31</v>
@@ -7012,13 +6988,13 @@
         <v>29706</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -7033,13 +7009,13 @@
         <v>957</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>25</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>201</v>
+        <v>87</v>
       </c>
       <c r="H18" s="7">
         <v>2</v>
@@ -7048,13 +7024,13 @@
         <v>1272</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="K18" s="7" t="s">
         <v>25</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>191</v>
+        <v>273</v>
       </c>
       <c r="M18" s="7">
         <v>3</v>
@@ -7063,13 +7039,13 @@
         <v>2228</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>470</v>
+        <v>229</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -7125,7 +7101,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -7137,13 +7113,13 @@
         <v>147769</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="H20" s="7">
         <v>209</v>
@@ -7152,28 +7128,28 @@
         <v>148556</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="M20" s="7">
         <v>411</v>
       </c>
       <c r="N20" s="7">
-        <v>296326</v>
+        <v>296325</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -7188,13 +7164,13 @@
         <v>17667</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="H21" s="7">
         <v>24</v>
@@ -7203,13 +7179,13 @@
         <v>17670</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>510</v>
+        <v>130</v>
       </c>
       <c r="M21" s="7">
         <v>49</v>
@@ -7218,13 +7194,13 @@
         <v>35337</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>511</v>
+        <v>506</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>512</v>
+        <v>507</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>513</v>
+        <v>508</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -7239,13 +7215,13 @@
         <v>7088</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>514</v>
+        <v>509</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>204</v>
+        <v>510</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>49</v>
+        <v>511</v>
       </c>
       <c r="H22" s="7">
         <v>4</v>
@@ -7254,13 +7230,13 @@
         <v>3036</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>517</v>
+        <v>279</v>
       </c>
       <c r="M22" s="7">
         <v>13</v>
@@ -7269,13 +7245,13 @@
         <v>10124</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>518</v>
+        <v>514</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>302</v>
+        <v>206</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>519</v>
+        <v>140</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -7317,7 +7293,7 @@
         <v>473</v>
       </c>
       <c r="N23" s="7">
-        <v>341787</v>
+        <v>341786</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>35</v>
@@ -7343,13 +7319,13 @@
         <v>666633</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>520</v>
+        <v>515</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>521</v>
+        <v>516</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>522</v>
+        <v>517</v>
       </c>
       <c r="H24" s="7">
         <v>862</v>
@@ -7358,13 +7334,13 @@
         <v>589359</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>233</v>
+        <v>518</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
       <c r="M24" s="7">
         <v>1757</v>
@@ -7373,13 +7349,13 @@
         <v>1255992</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>525</v>
+        <v>521</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>526</v>
+        <v>522</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>527</v>
+        <v>523</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7394,13 +7370,13 @@
         <v>41922</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>528</v>
+        <v>524</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>529</v>
+        <v>525</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>530</v>
+        <v>526</v>
       </c>
       <c r="H25" s="7">
         <v>59</v>
@@ -7409,13 +7385,13 @@
         <v>48385</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>531</v>
+        <v>527</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>532</v>
+        <v>528</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>533</v>
+        <v>529</v>
       </c>
       <c r="M25" s="7">
         <v>119</v>
@@ -7424,13 +7400,13 @@
         <v>90307</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>534</v>
+        <v>530</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>535</v>
+        <v>531</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>536</v>
+        <v>222</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7445,13 +7421,13 @@
         <v>13227</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>255</v>
+        <v>165</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>537</v>
+        <v>532</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>538</v>
+        <v>533</v>
       </c>
       <c r="H26" s="7">
         <v>17</v>
@@ -7460,13 +7436,13 @@
         <v>12129</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>539</v>
+        <v>534</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>540</v>
+        <v>444</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="M26" s="7">
         <v>35</v>
@@ -7475,13 +7451,13 @@
         <v>25356</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>163</v>
+        <v>510</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>542</v>
+        <v>114</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>543</v>
+        <v>469</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7537,7 +7513,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
   </sheetData>
